--- a/Employee_Reports28/Regin Alis Q0187.xlsx
+++ b/Employee_Reports28/Regin Alis Q0187.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,13 +74,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,187 +566,187 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>VALID</t>
+          <t>NOT VALID</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Endangered by Electricity A safety Training (SOPs)</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>06-Aug-2024</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>06-Aug-2025</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>-34</v>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>08-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="H4" s="3" t="n">
+        <v>-42</v>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>16-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr"/>
+      <c r="K4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>IMS</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v/>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>09-Apr-2025</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>09-Apr-2026</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n">
-        <v>212</v>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>08-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="H5" s="4" t="n">
+        <v>204</v>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>16-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>VALID</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr"/>
+      <c r="K5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
-      <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>10-Apr-2025</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>10-Apr-2026</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n">
-        <v>213</v>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>08-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="H6" s="4" t="n">
+        <v>205</v>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>16-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>VALID</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr"/>
+      <c r="K6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Weight Scale Verification Procedure(LSME-IMS-SOP-023 ) (SOPs)</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>IMS</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v/>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>18-Jul-2025</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>18-Jul-2026</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n">
-        <v>312</v>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>08-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="H7" s="4" t="n">
+        <v>304</v>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>16-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>VALID</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr"/>
+      <c r="K7" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
